--- a/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
+++ b/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\ctrl-settings\GRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/ctrl-settings/gra/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE535FE-2280-DF4E-AC32-9EA66AB8F26C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2670" windowWidth="25665" windowHeight="13515" tabRatio="698"/>
+    <workbookView xWindow="2080" yWindow="2680" windowWidth="25660" windowHeight="13520" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="GRA-ntnldebtinterest" sheetId="15" r:id="rId10"/>
     <sheet name="GRA-remainder" sheetId="16" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +36,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,26 +44,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={4F81BCB5-E56D-426A-91DB-BCF0877CB817}</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     It is recommended to leave this cell set to zero and to set a non-zero value in at least one other cell in this row.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -272,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -385,6 +378,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,22 +707,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.86328125" customWidth="1"/>
+    <col min="2" max="2" width="80.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="15">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -736,72 +733,72 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -809,7 +806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -817,7 +814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -825,7 +822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -833,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -841,114 +838,114 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -960,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -968,12 +965,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -981,7 +978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -990,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -998,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1006,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1014,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1028,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1036,12 +1033,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1058,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1074,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1082,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1096,7 +1093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -1106,33 +1103,33 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1142,7 +1139,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1202,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1222,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1262,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1282,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1302,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1342,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
@@ -1352,12 +1349,12 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -1377,7 +1374,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1427,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1452,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1502,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1527,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1552,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1577,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1610,7 +1607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1620,12 +1617,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1633,7 +1630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1642,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1680,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1688,12 +1685,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1701,7 +1698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1710,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1718,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1726,7 +1723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1734,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1748,7 +1745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1756,12 +1753,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1769,7 +1766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1778,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1786,7 +1783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1794,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1802,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1816,7 +1813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1824,12 +1821,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1837,7 +1834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1846,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1854,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1862,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1870,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1884,7 +1881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1892,12 +1889,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1905,7 +1902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1914,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1922,7 +1919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1938,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1952,7 +1949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1960,12 +1957,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1973,7 +1970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1982,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1990,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1998,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2006,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2020,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2028,12 +2025,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2041,7 +2038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2050,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2058,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2066,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2074,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
